--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>610060.4130631118</v>
+        <v>607359.1964116547</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C2" t="n">
-        <v>110.096520216718</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>221.0427070190019</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.3766310120711</v>
       </c>
       <c r="F3" t="n">
-        <v>107.1388975747601</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>68.0595553836731</v>
       </c>
       <c r="S4" t="n">
-        <v>176.364085072348</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>263.7138800015061</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>356.3265794398757</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154298</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>32.22766030994237</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>113.8905614337361</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333229</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951739</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713976</v>
+        <v>4.360182258713863</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>165.4946697765275</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.102146838994261</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643678</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>228.9176563786554</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>159.3658021333079</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.5377921948941</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>8.906162259192037</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>52.74731720309062</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132644</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>160.9806585583118</v>
+        <v>222.6434959374224</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184572</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615221</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530797</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.0940871474037</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905247</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>181.1249638333992</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="I16" t="n">
-        <v>39.39795577638937</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.168699193619</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>132.6315337216739</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238223</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936202</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.64713141731342</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>60.19827945150353</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>101.6969570046969</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337024</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>89.67992556049165</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.799772605716015</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.972649747165</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833757</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703267</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="C2" t="n">
-        <v>410.8916005921556</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="D2" t="n">
-        <v>410.8916005921556</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8916005921556</v>
+        <v>634.167062227511</v>
       </c>
       <c r="F2" t="n">
+        <v>627.2215614783075</v>
+      </c>
+      <c r="G2" t="n">
         <v>403.9460998429521</v>
       </c>
-      <c r="G2" t="n">
-        <v>137.5684432757742</v>
-      </c>
       <c r="H2" t="n">
-        <v>137.5684432757742</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>900.5447187946889</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.943113009328</v>
+        <v>275.4624604776052</v>
       </c>
       <c r="C3" t="n">
-        <v>437.4900837282011</v>
+        <v>275.4624604776052</v>
       </c>
       <c r="D3" t="n">
-        <v>288.5556740669498</v>
+        <v>126.528050816354</v>
       </c>
       <c r="E3" t="n">
-        <v>129.3182190614943</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4407,52 +4407,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>66.42278870159446</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>141.1068094710486</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>287.8512331313452</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278689</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742819</v>
+        <v>691.074259448092</v>
       </c>
       <c r="W3" t="n">
-        <v>819.7034117742819</v>
+        <v>691.074259448092</v>
       </c>
       <c r="X3" t="n">
-        <v>819.7034117742819</v>
+        <v>483.2227592425592</v>
       </c>
       <c r="Y3" t="n">
-        <v>611.943113009328</v>
+        <v>275.4624604776052</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.9546663945495</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4489,7 +4489,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551008</v>
@@ -4501,7 +4501,7 @@
         <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>986.1084943659507</v>
       </c>
       <c r="S4" t="n">
-        <v>876.7099795289054</v>
+        <v>779.3214597764621</v>
       </c>
       <c r="T4" t="n">
-        <v>876.7099795289054</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="U4" t="n">
-        <v>610.3323229617274</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="V4" t="n">
-        <v>610.3323229617274</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="W4" t="n">
-        <v>343.9546663945495</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>343.9546663945495</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.9546663945495</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>430.8028149860422</v>
+        <v>410.110792123575</v>
       </c>
       <c r="C5" t="n">
-        <v>430.8028149860422</v>
+        <v>410.110792123575</v>
       </c>
       <c r="D5" t="n">
-        <v>430.8028149860422</v>
+        <v>410.110792123575</v>
       </c>
       <c r="E5" t="n">
-        <v>430.8028149860422</v>
+        <v>50.18495430551867</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631513</v>
+        <v>43.2394535563152</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523439</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523439</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523439</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275096</v>
+        <v>93.76641159275141</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245553</v>
+        <v>239.032598924556</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825618</v>
+        <v>456.1499114825627</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748837</v>
+        <v>729.4041931748853</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202376</v>
+        <v>1011.693823202379</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798409</v>
+        <v>1264.916654798412</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189405</v>
+        <v>1446.535482189409</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261723</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261723</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261719</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261719</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="U5" t="n">
-        <v>1502.197719029454</v>
+        <v>1136.345205654769</v>
       </c>
       <c r="V5" t="n">
-        <v>1171.134831685883</v>
+        <v>1136.345205654769</v>
       </c>
       <c r="W5" t="n">
-        <v>818.3661764157694</v>
+        <v>783.5765503846549</v>
       </c>
       <c r="X5" t="n">
-        <v>818.3661764157694</v>
+        <v>410.110792123575</v>
       </c>
       <c r="Y5" t="n">
-        <v>430.8028149860422</v>
+        <v>410.110792123575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.6149083190971</v>
+        <v>351.6826054794765</v>
       </c>
       <c r="C6" t="n">
-        <v>576.1618790379702</v>
+        <v>177.2295761983495</v>
       </c>
       <c r="D6" t="n">
-        <v>427.2274693767189</v>
+        <v>177.2295761983495</v>
       </c>
       <c r="E6" t="n">
-        <v>427.2274693767189</v>
+        <v>177.2295761983495</v>
       </c>
       <c r="F6" t="n">
-        <v>280.6929114036038</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878731</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523439</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626387</v>
+        <v>174.2721860626389</v>
       </c>
       <c r="K6" t="n">
-        <v>388.9600665101402</v>
+        <v>284.4686930039493</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414918</v>
+        <v>478.9640368353012</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122372</v>
+        <v>829.7791710122399</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584459</v>
+        <v>1097.031033584462</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749977</v>
+        <v>1319.294480749981</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948665</v>
+        <v>1478.347425948669</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261719</v>
+        <v>1534.750911261723</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757968</v>
+        <v>1530.346686757972</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757968</v>
+        <v>1385.878273152067</v>
       </c>
       <c r="T6" t="n">
-        <v>1334.442044309652</v>
+        <v>1189.973630703751</v>
       </c>
       <c r="U6" t="n">
-        <v>1334.442044309652</v>
+        <v>961.8525470243555</v>
       </c>
       <c r="V6" t="n">
-        <v>1334.442044309652</v>
+        <v>726.7004387926129</v>
       </c>
       <c r="W6" t="n">
-        <v>1334.442044309652</v>
+        <v>559.5341056850093</v>
       </c>
       <c r="X6" t="n">
-        <v>1126.590544104119</v>
+        <v>351.6826054794765</v>
       </c>
       <c r="Y6" t="n">
-        <v>918.8302453391652</v>
+        <v>351.6826054794765</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>469.3062991088049</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="C7" t="n">
-        <v>300.370116180898</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="D7" t="n">
-        <v>300.370116180898</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="E7" t="n">
-        <v>297.2366345253482</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="F7" t="n">
-        <v>150.3466870274379</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="G7" t="n">
-        <v>150.3466870274379</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3466870274379</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709668</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523439</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223264</v>
+        <v>157.4322756223267</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830384</v>
+        <v>375.1387655830389</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388145</v>
+        <v>615.0688576388152</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974815</v>
+        <v>854.7285647974824</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.26700593402</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495182</v>
+        <v>1030.691890529573</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495182</v>
+        <v>806.0266324061178</v>
       </c>
       <c r="U7" t="n">
-        <v>1234.200536495182</v>
+        <v>574.796676468082</v>
       </c>
       <c r="V7" t="n">
-        <v>979.5160482892956</v>
+        <v>320.1121882621951</v>
       </c>
       <c r="W7" t="n">
-        <v>690.098878252335</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="X7" t="n">
-        <v>690.098878252335</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="Y7" t="n">
-        <v>469.3062991088049</v>
+        <v>30.69501822523447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1181.996585635751</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>1181.996585635751</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
         <v>355.3059305704328</v>
@@ -4835,19 +4835,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2276.664563216214</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1945.601675872643</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1945.601675872643</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1572.135917611563</v>
+        <v>1133.017626471167</v>
       </c>
       <c r="Y8" t="n">
-        <v>1181.996585635751</v>
+        <v>742.878294495355</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>771.8570290615538</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C10" t="n">
-        <v>771.8570290615538</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4996,16 +4996,16 @@
         <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>771.8570290615538</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>771.8570290615538</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>771.8570290615538</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y10" t="n">
-        <v>771.8570290615538</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2203.15305654126</v>
+        <v>1485.490329133576</v>
       </c>
       <c r="C11" t="n">
-        <v>1834.190539600848</v>
+        <v>1485.490329133576</v>
       </c>
       <c r="D11" t="n">
-        <v>1475.924840994098</v>
+        <v>1127.224630526825</v>
       </c>
       <c r="E11" t="n">
-        <v>1090.136588395853</v>
+        <v>741.4363779285811</v>
       </c>
       <c r="F11" t="n">
-        <v>679.1506836062458</v>
+        <v>741.4363779285811</v>
       </c>
       <c r="G11" t="n">
-        <v>264.5349190473929</v>
+        <v>326.8206133697266</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592064</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625332</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.60089048404</v>
+        <v>2455.600890484045</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535293</v>
+        <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479991</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464056</v>
+        <v>3789.749829464064</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796032</v>
+        <v>3876.88329579604</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345373</v>
+        <v>3776.999350345381</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926737</v>
+        <v>3573.020743926746</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048265</v>
+        <v>3319.526802048274</v>
       </c>
       <c r="V11" t="n">
-        <v>3319.526802048265</v>
+        <v>2988.463914704704</v>
       </c>
       <c r="W11" t="n">
-        <v>2966.758146778151</v>
+        <v>2635.695259434589</v>
       </c>
       <c r="X11" t="n">
-        <v>2593.292388517071</v>
+        <v>2262.22950117351</v>
       </c>
       <c r="Y11" t="n">
-        <v>2203.15305654126</v>
+        <v>1872.090169197698</v>
       </c>
     </row>
     <row r="12">
@@ -5109,37 +5109,37 @@
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592064</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J12" t="n">
-        <v>193.841091987041</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046649</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626159</v>
+        <v>488.5008422034049</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019144</v>
+        <v>996.4574081599335</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720353</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>834.351183098905</v>
+        <v>365.7608055583768</v>
       </c>
       <c r="C13" t="n">
-        <v>834.351183098905</v>
+        <v>196.8246226304699</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865693</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041762</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062658</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.5376659159208</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.169024664814</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344801</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925581</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458877</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893318</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1647.736286893318</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1464.781777970692</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1464.781777970692</v>
+        <v>814.5429355999242</v>
       </c>
       <c r="X13" t="n">
-        <v>1236.792227072675</v>
+        <v>586.5533847019069</v>
       </c>
       <c r="Y13" t="n">
-        <v>1015.999647929145</v>
+        <v>365.7608055583768</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5306,22 +5306,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1056.376371837086</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C16" t="n">
-        <v>887.440188909179</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D16" t="n">
-        <v>737.3235494968432</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E16" t="n">
-        <v>589.41045591445</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="F16" t="n">
-        <v>442.5205084165397</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="G16" t="n">
-        <v>275.3244091314196</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="H16" t="n">
-        <v>133.6125779736177</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>1238.024836667326</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5498,28 +5498,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263198</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>680.4481746984129</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860772</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E19" t="n">
-        <v>382.418441703684</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,16 +5671,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2312.991837396751</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2312.991837396751</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740949</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.032822456559</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400722</v>
       </c>
       <c r="C22" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121653</v>
       </c>
       <c r="D22" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121653</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2385.703354875905</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2385.703354875905</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138421</v>
       </c>
       <c r="Y22" t="n">
-        <v>884.1428749586493</v>
+        <v>695.502065570312</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1150.523556479149</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,22 +6540,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171303</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892234</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768877</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944946</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138371</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.10353054737</v>
+        <v>695.502065570307</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.853600740071</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>344.917417812164</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851782</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,7 +6880,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138409</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703107</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,10 +7093,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797745</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,7 +7208,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7254,25 +7254,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121641</v>
+        <v>194.800778399828</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121641</v>
+        <v>194.800778399828</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121641</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057735</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7333,13 +7333,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,22 +7491,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192616</v>
@@ -7655,28 +7655,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,16 +7719,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
         <v>589.1422692637306</v>
@@ -7740,7 +7740,7 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400709</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>344.917417812164</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>344.917417812164</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>344.917417812164</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F46" t="n">
-        <v>344.917417812164</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270439</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,13 +7828,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>47.83473395525058</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637034</v>
+        <v>34.43939438637014</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>105.546841925446</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>105.5468419254474</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.591198401904</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154988</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>128.9968447810631</v>
+        <v>67.33400740195228</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.52138587080864</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992738</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>71.01267949042878</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.60193020596213e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624215</v>
       </c>
       <c r="I16" t="n">
-        <v>41.86788054217616</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.26526345295021</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>48.39475227997072</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345294896</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.728115292808262</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>165.5113759375336</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>65.54986409393094</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823491</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>55.74112246243959</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8157004124963</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.7370056418722</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864943</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459368</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194214</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194217</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>925495.6587831922</v>
+        <v>925495.658783193</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>410520.8849321418</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321414</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>366294.6221371979</v>
+        <v>366294.6221371985</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="I2" t="n">
         <v>403573.2998450032</v>
       </c>
       <c r="J2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="K2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="L2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="M2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>403573.299845003</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="P2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="M2" t="n">
-        <v>403573.2998450029</v>
-      </c>
-      <c r="N2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="O2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="P2" t="n">
-        <v>403573.299845003</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657058</v>
+        <v>132804.2190657068</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.072392939</v>
+        <v>265413.072392938</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545762</v>
+        <v>313577.157354578</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704299</v>
+        <v>189308.2687704281</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417389</v>
+        <v>30877.42926417417</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049596</v>
+        <v>65018.3450204957</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273052</v>
+        <v>81897.40371273103</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202391</v>
+        <v>49839.57413202341</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>214511.7974947653</v>
+        <v>214511.797494765</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
       </c>
       <c r="E4" t="n">
-        <v>10451.66972713473</v>
+        <v>10451.66972713467</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678128</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
+        <v>10557.08828678119</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10557.08828678122</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10557.08828678122</v>
+      </c>
+      <c r="O4" t="n">
         <v>10557.08828678123</v>
       </c>
-      <c r="L4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>10557.08828678122</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10557.08828678119</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10557.08828678125</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667484</v>
+        <v>72593.65038667491</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738558</v>
+        <v>85137.48506738574</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-582947.5648381794</v>
+        <v>-582947.5648381796</v>
       </c>
       <c r="C6" t="n">
-        <v>-9388.782015004384</v>
+        <v>-9388.78201500533</v>
       </c>
       <c r="D6" t="n">
-        <v>-86964.50702298322</v>
+        <v>-86964.5070229822</v>
       </c>
       <c r="E6" t="n">
-        <v>-42871.69001189854</v>
+        <v>-43092.82132587463</v>
       </c>
       <c r="F6" t="n">
-        <v>102585.4129638848</v>
+        <v>102550.6750384509</v>
       </c>
       <c r="G6" t="n">
-        <v>291893.6817343148</v>
+        <v>291858.943808879</v>
       </c>
       <c r="H6" t="n">
-        <v>291893.6817343148</v>
+        <v>291858.9438088789</v>
       </c>
       <c r="I6" t="n">
-        <v>291893.6817343148</v>
+        <v>291858.9438088791</v>
       </c>
       <c r="J6" t="n">
-        <v>222894.5273152007</v>
+        <v>222859.7893897649</v>
       </c>
       <c r="K6" t="n">
-        <v>261016.2524701408</v>
+        <v>260981.5145447046</v>
       </c>
       <c r="L6" t="n">
-        <v>226875.3367138188</v>
+        <v>226840.5987883832</v>
       </c>
       <c r="M6" t="n">
-        <v>209996.278021584</v>
+        <v>209961.540096148</v>
       </c>
       <c r="N6" t="n">
-        <v>242054.1076022909</v>
+        <v>242019.3696768555</v>
       </c>
       <c r="O6" t="n">
-        <v>291893.6817343147</v>
+        <v>291858.9438088789</v>
       </c>
       <c r="P6" t="n">
-        <v>291893.6817343147</v>
+        <v>291858.943808879</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695738</v>
+        <v>717.3319511695746</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154298</v>
+        <v>383.6877278154308</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490079</v>
+        <v>969.22082394901</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000957</v>
+        <v>103.2769374000964</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479655</v>
+        <v>216.7329409479647</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974101</v>
+        <v>268.1763450974117</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267243</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139237</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846089</v>
+        <v>256.8971042846079</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489692</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506404</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139236</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846089</v>
+        <v>256.8971042846079</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489692</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506404</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139237</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846089</v>
+        <v>256.8971042846079</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489692</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506404</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>255.1763715542896</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>191.7914676267081</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.2684494433298</v>
       </c>
       <c r="F3" t="n">
-        <v>37.93031481862383</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>59.44504749999084</v>
       </c>
       <c r="S4" t="n">
-        <v>28.35507917124576</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>22.54475050117135</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>25.60379063238605</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792628163</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863706</v>
+        <v>99.30025118863695</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>218.8872928749049</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840623777</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21.91001530620417</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951733</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>86.20031338439208</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>143.3318158075749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
@@ -27792,10 +27792,10 @@
         <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643578</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422209</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>57.33081573673681</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>91.67944799515416</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.193308483574981</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>157.4004377856122</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>199.3903261207374</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.472590277831613e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.472590277831613e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>5.690807824976218e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29709,7 +29709,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-3.880510727564494e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30751,13 +30751,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31045,16 +31045,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31063,25 +31063,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31224,19 +31224,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365119</v>
+        <v>2.883746537365122</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579053</v>
+        <v>29.53316922579056</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817688</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.754382675693</v>
+        <v>244.7543826756932</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023585</v>
+        <v>366.8233736023589</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952464</v>
+        <v>455.0768316952469</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791133</v>
+        <v>506.3606591791138</v>
       </c>
       <c r="N5" t="n">
-        <v>514.554104028402</v>
+        <v>514.5541040284025</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974775</v>
+        <v>485.8788493974781</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562761</v>
+        <v>414.6863567562766</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868877</v>
+        <v>311.412183886888</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277618</v>
+        <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020771</v>
+        <v>65.71337422020778</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731581</v>
+        <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892095</v>
+        <v>0.2306997229892097</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270404</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316417</v>
+        <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189769</v>
+        <v>53.12316808189775</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862622</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453793</v>
+        <v>249.1510419453795</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438656</v>
+        <v>335.014323043866</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874177</v>
+        <v>390.9459133874181</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189109</v>
+        <v>401.2930884189114</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348667</v>
+        <v>367.1047769348671</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190651</v>
+        <v>294.6339480190655</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739555</v>
+        <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392916</v>
+        <v>95.79765189392927</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399192</v>
+        <v>28.65944163399195</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989039</v>
+        <v>6.219132670989046</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730529</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141854</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5008302990794</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.9005589257205</v>
+        <v>38.90055892572055</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040291</v>
+        <v>91.4539440040292</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401172</v>
+        <v>150.2869235401174</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545444</v>
+        <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773272</v>
+        <v>202.7697513773274</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022532</v>
+        <v>197.9483399022534</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669596</v>
+        <v>182.8373307669598</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960657</v>
+        <v>156.4489225960658</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266056</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.162685745651</v>
+        <v>58.16268574565106</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101758</v>
+        <v>22.5430385310176</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060648</v>
+        <v>5.526983886060655</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864668</v>
+        <v>0.07055724109864675</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.83313060186914</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639234</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203913</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975121</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544649</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954552</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118016</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956796</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620352</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825965</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495311</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469203</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193135</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598377</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747743</v>
+        <v>156.4572543240549</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821474</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.56323703405</v>
+        <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>225.1169475382863</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383441</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047537</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627649</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798448</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811702</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493536</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377476</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P15" t="n">
-        <v>539.5330155967683</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32318,16 +32318,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>161.7871425275306</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,7 +33032,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,25 +33260,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.8708611242914</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34211,13 +34211,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>45.78351343583229</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900668</v>
+        <v>63.70847814900694</v>
       </c>
       <c r="K5" t="n">
-        <v>146.733522557378</v>
+        <v>146.7335225573784</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252591</v>
+        <v>219.3104167252596</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518405</v>
+        <v>276.0144259518411</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318111</v>
+        <v>285.1410404318116</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757908</v>
+        <v>255.7806379757913</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010066</v>
+        <v>183.453361001007</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243822</v>
+        <v>89.10649401243856</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600043</v>
+        <v>145.0274422600045</v>
       </c>
       <c r="K6" t="n">
-        <v>216.8564448964662</v>
+        <v>111.3096029710206</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639914</v>
+        <v>196.4599432639918</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653994</v>
+        <v>354.3587213908472</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355776</v>
+        <v>269.9513763355781</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904223</v>
+        <v>224.5085324904227</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047349</v>
+        <v>160.6595406047352</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793394</v>
+        <v>56.97321748793416</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142345</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148606</v>
+        <v>219.9055454148608</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391678</v>
+        <v>242.353628339168</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814818</v>
+        <v>242.080512281482</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809993</v>
+        <v>207.4224586809995</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.7274818609593</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491126</v>
+        <v>22.15508137491138</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839445</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525316</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681825</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214251</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739929</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067656</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081469</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553051</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526468</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854787</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949001</v>
+        <v>17.90287454418073</v>
       </c>
       <c r="M12" t="n">
-        <v>513.087440360129</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507167</v>
+        <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>82.52070309384185</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240139</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187322</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655353</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186264</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776297</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P15" t="n">
-        <v>405.558608182438</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>23.94570355317166</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066269</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36908,25 +36908,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37005,7 +37005,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066211</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
